--- a/RFB/SE5004L_DET.xlsx
+++ b/RFB/SE5004L_DET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penta\Documents\BikeRadar\RFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F45FD6-29CD-4ACC-A999-A9287CD66CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B573828D-5688-4A83-977E-6EA8D2540C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="4455" windowWidth="21435" windowHeight="10800" xr2:uid="{21B8A250-8AA5-40FA-80DB-0363A9268787}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21B8A250-8AA5-40FA-80DB-0363A9268787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="190" formatCode="0.000000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +105,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +745,431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pwr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61A3-4EE6-802D-E027B731871E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1233227423"/>
+        <c:axId val="1233227839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1233227423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233227839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1233227839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233227423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1282,20 +1712,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>109385</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92985</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299884</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>565104</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>112037</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68147</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1315,6 +2261,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB697467-4B7D-4F53-93EC-451DCA66A8FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1622,16 +2604,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC35F28-F294-435C-952E-C585024B408D}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2140,23 +3124,23 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <f t="array" ref="A18:F22">LINEST(A2:A15, D2:H15, TRUE, TRUE)</f>
         <v>7.1481031553812477E-13</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>-2.8651243087028138E-9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>4.4766024735523794E-6</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>-3.4215737686609095E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1.3022707954349513</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>-180.16284088880414</v>
       </c>
     </row>
